--- a/doc/04_DB定義書_新イフリート改_0609.xlsx
+++ b/doc/04_DB定義書_新イフリート改_0609.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\６月研修\PlusDojo6月作成ドキュメントテンプレート\PlusDojo6月作成ドキュメントテンプレート\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1F2537-68DD-48B7-9812-8ED1738DBEA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC2B36B-3B77-48A5-B2A9-115E01807E08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -405,16 +405,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>累計ポイント数</t>
-    <rPh sb="0" eb="2">
-      <t>ルイケイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>pcount</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -611,6 +601,13 @@
   </si>
   <si>
     <t>cname</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在ポイント</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1062,7 +1059,7 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -1140,16 +1137,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1157,16 +1154,16 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1174,16 +1171,16 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1191,16 +1188,16 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1208,16 +1205,16 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="F12" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1469,7 +1466,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1503,7 +1500,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1515,7 +1512,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1749,10 +1746,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>27</v>
@@ -2003,15 +2000,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D750C03-9A3F-44E1-80CA-71BB2126ABBA}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -2045,7 +2042,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2057,7 +2054,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2133,10 +2130,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>32</v>
@@ -2159,10 +2156,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>27</v>
@@ -2175,7 +2172,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -2524,6 +2521,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2539,7 +2537,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -2573,7 +2571,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2585,7 +2583,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3079,8 +3077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0606B6-CB70-485A-9023-F73FD289765F}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3090,7 +3088,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -3124,7 +3122,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3136,7 +3134,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3345,10 +3343,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>32</v>
@@ -3361,7 +3359,7 @@
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
@@ -3638,7 +3636,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -3672,7 +3670,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3684,7 +3682,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>

--- a/doc/04_DB定義書_新イフリート改_0609.xlsx
+++ b/doc/04_DB定義書_新イフリート改_0609.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC2B36B-3B77-48A5-B2A9-115E01807E08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E60BE25-F025-40DF-8C40-DE360CA7086C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="90">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -604,9 +604,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>現在ポイント</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンザイ</t>
+    <t>ポイント変動履歴</t>
+    <rPh sb="4" eb="8">
+      <t>ヘンドウリレキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1459,7 +1459,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2001,7 +2001,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2047,7 +2047,9 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
@@ -2059,7 +2061,9 @@
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5">
+        <v>45086</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -3078,7 +3082,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>

--- a/doc/04_DB定義書_新イフリート改_0609.xlsx
+++ b/doc/04_DB定義書_新イフリート改_0609.xlsx
@@ -1,24 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E60BE25-F025-40DF-8C40-DE360CA7086C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13FE0A5-ADB1-4BF5-B0BF-58AE9217A1E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="875" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
-    <sheet name="目標テーブル" sheetId="4" r:id="rId2"/>
-    <sheet name="ランキングテーブル" sheetId="9" r:id="rId3"/>
-    <sheet name="投稿テーブル" sheetId="5" r:id="rId4"/>
-    <sheet name="収支テーブル" sheetId="3" r:id="rId5"/>
-    <sheet name="IDPW" sheetId="8" r:id="rId6"/>
+    <sheet name="ナイスバイカウントテーブル" sheetId="12" r:id="rId2"/>
+    <sheet name="キャラクターイメージテーブル" sheetId="11" r:id="rId3"/>
+    <sheet name="キャラクターステータステーブル" sheetId="10" r:id="rId4"/>
+    <sheet name="目標テーブル" sheetId="4" r:id="rId5"/>
+    <sheet name="ランキングテーブル" sheetId="9" r:id="rId6"/>
+    <sheet name="投稿テーブル" sheetId="5" r:id="rId7"/>
+    <sheet name="収支テーブル" sheetId="3" r:id="rId8"/>
+    <sheet name="IDPW" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="103">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -239,16 +242,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>自動採番</t>
-    <rPh sb="0" eb="2">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>サイバン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>作成日時</t>
     <rPh sb="0" eb="2">
       <t>サクセイ</t>
@@ -301,13 +294,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>日にち</t>
-    <rPh sb="0" eb="1">
-      <t>ヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>date</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -353,17 +339,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>バイート時間</t>
-    <rPh sb="4" eb="6">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>buyttertime</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コメント</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -386,25 +361,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>nice buyカウント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>nbcount</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>検索履歴</t>
-    <rPh sb="0" eb="4">
-      <t>ケンサクリレキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>shistory</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>pcount</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -576,30 +532,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>現在の貯金額</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チョキンガク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bank</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>計算で出す</t>
-    <rPh sb="0" eb="2">
-      <t>ケイサン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>cname</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -608,6 +540,128 @@
     <rPh sb="4" eb="8">
       <t>ヘンドウリレキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かぶりなし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクターステータステーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chars</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザが育成してきたキャラクター一覧</t>
+    <rPh sb="4" eb="6">
+      <t>イクセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクターステータス</t>
+  </si>
+  <si>
+    <t>キャラクターID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>char_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほかのユーザ、かぶりなし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクターイメージテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>charpics</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクターごとの画像のパスが格納</t>
+    <rPh sb="9" eb="11">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクターイメージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>char_pic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nice buy数をカウントするためのテーブル</t>
+    <rPh sb="8" eb="9">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナイスバイカウンターテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nicebuycounts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナイスバイカウントテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バイートＩＤ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>buyte_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナイスバイカウント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>buyte_count</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これは投稿テーブルのidを持ってきて使うものとする。</t>
+    <rPh sb="3" eb="5">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用可能額</t>
+    <rPh sb="0" eb="5">
+      <t>シヨウカノウガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>available</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -655,7 +709,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -691,13 +745,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -714,6 +779,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1137,16 +1205,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1154,16 +1222,16 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1171,16 +1239,16 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1188,16 +1256,16 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1205,40 +1273,68 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
         <v>6</v>
       </c>
+      <c r="C13" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="3">
         <v>7</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="3">
         <v>8</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="3">
@@ -1455,18 +1551,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D647C06-64F6-454C-92C3-3011A5249394}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55914BE-0386-40E6-B566-8B4B24E6224A}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1500,7 +1596,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1511,9 +1607,7 @@
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="C5" s="3"/>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1552,7 +1646,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table goals (</v>
+        <v>create table  (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1560,17 +1654,21 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="H10" s="3" t="s">
         <v>28</v>
       </c>
@@ -1578,7 +1676,7 @@
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>goal int ,</v>
+        <v>id int ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1586,13 +1684,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1601,10 +1699,12 @@
         <v>28</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>limit date ,</v>
+        <v>buyte_id varchar ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1612,25 +1712,25 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="3">
-        <v>140</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>want varchar (140),</v>
+        <v>buyte_count int ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1638,25 +1738,25 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="3">
-        <v>140</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>wantpic varchar (140),</v>
+        <v>created_at timestamp ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1664,109 +1764,79 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>id int ,</v>
+        <v xml:space="preserve">update_at timestamp </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>created_at timestamp ,</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v>update_at timestamp ,</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="3">
-        <v>20</v>
-      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v>cname varchar (20)</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1997,18 +2067,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D750C03-9A3F-44E1-80CA-71BB2126ABBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47546167-CC85-4A9E-8A61-6235D86E74DD}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="13.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -2042,28 +2115,24 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="5">
-        <v>45086</v>
-      </c>
+      <c r="E5" s="3"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -2098,7 +2167,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table ranks (</v>
+        <v>create table charpics (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -2106,19 +2175,21 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="3">
-        <v>20</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="H10" s="3" t="s">
         <v>28</v>
       </c>
@@ -2126,7 +2197,7 @@
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>user_name varchar (20),</v>
+        <v>id int ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -2134,15 +2205,17 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
@@ -2152,7 +2225,7 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>pcount int ,</v>
+        <v>char_id varchar (20),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2160,27 +2233,27 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="3">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>cpic varchar (140),</v>
+        <v>char_pic varchar (20),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -2188,29 +2261,25 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>id int ,</v>
+        <v>created_at timestamp ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -2218,13 +2287,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2232,37 +2301,29 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>created_at timestamp ,</v>
+        <v xml:space="preserve">update_at timestamp </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">update_at timestamp </v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -2525,23 +2586,22 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{889A1A69-7B95-44F8-A6DB-6827330703FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08DF71E-4AF6-47A6-A581-1547715BA51B}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -2575,7 +2635,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2587,7 +2647,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2627,7 +2687,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table buytters (</v>
+        <v>create table chars (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -2635,19 +2695,21 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="3">
-        <v>20</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="H10" s="3" t="s">
         <v>28</v>
       </c>
@@ -2655,7 +2717,7 @@
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>user_name varchar (20),</v>
+        <v>id int ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -2663,25 +2725,29 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>buyttertime date ,</v>
+        <v>user_id varchar (20),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2689,25 +2755,27 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="3">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>comment varchar (140),</v>
+        <v>char_id varchar (20),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -2715,25 +2783,25 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="3">
-        <v>140</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>buypic varchar (140),</v>
+        <v>created_at timestamp ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -2741,123 +2809,89 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>nbcount int ,</v>
+        <v xml:space="preserve">update_at timestamp </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>id int ,</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v>created_at timestamp ,</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="J17" s="3"/>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v>update_at timestamp ,</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="3">
-        <v>140</v>
-      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -2865,7 +2899,7 @@
       <c r="J18" s="3"/>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
-        <v>shistory varchar (140)</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -3078,21 +3112,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0606B6-CB70-485A-9023-F73FD289765F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D647C06-64F6-454C-92C3-3011A5249394}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B19" sqref="B19:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="12" width="18.54296875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -3126,7 +3157,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3138,7 +3169,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3178,7 +3209,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table payments (</v>
+        <v>create table goals (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -3186,19 +3217,21 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="3">
-        <v>20</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="H10" s="3" t="s">
         <v>28</v>
       </c>
@@ -3206,7 +3239,7 @@
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>category varchar (20),</v>
+        <v>id int ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -3214,10 +3247,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>32</v>
@@ -3232,7 +3265,7 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>paymoney int ,</v>
+        <v>goal int ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -3240,13 +3273,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -3258,7 +3291,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>date date ,</v>
+        <v>limit date ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -3266,28 +3299,25 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
-        <v>28</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E13" s="3">
+        <v>140</v>
+      </c>
+      <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>id int ,</v>
+        <v>want varchar (140),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -3295,13 +3325,592 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="3">
+        <v>140</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>wantpic varchar (140),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="D15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>created_at timestamp ,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v>update_at timestamp ,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="3">
+        <v>20</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v>cname varchar (20),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="3">
+        <v>20</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v>user_id varchar (20),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">available int </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D750C03-9A3F-44E1-80CA-71BB2126ABBA}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45086</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5">
+        <v>45086</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table ranks (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>id int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>user_name varchar (20),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>pcount int ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="3">
+        <v>140</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>cpic varchar (140),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="C14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3309,7 +3918,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -3321,13 +3930,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -3335,10 +3944,10 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v>update_at timestamp ,</v>
       </c>
     </row>
@@ -3347,15 +3956,17 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="E16" s="3">
+        <v>20</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="s">
@@ -3363,11 +3974,11 @@
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">bank int </v>
+        <f t="shared" ref="L16:L29" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v>user_id varchar (20)</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -3438,7 +4049,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="L20" t="str">
-        <f t="shared" si="0"/>
+        <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3456,7 +4067,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f t="shared" si="0"/>
+        <f>C21&amp;" "&amp;D21&amp;" "&amp;IF(E21&lt;&gt;"","("&amp;E21&amp;")","")&amp;IF(C22&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3474,7 +4085,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f t="shared" si="0"/>
+        <f>C22&amp;" "&amp;D22&amp;" "&amp;IF(E22&lt;&gt;"","("&amp;E22&amp;")","")&amp;IF(C23&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3492,7 +4103,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f t="shared" si="0"/>
+        <f>C23&amp;" "&amp;D23&amp;" "&amp;IF(E23&lt;&gt;"","("&amp;E23&amp;")","")&amp;IF(C24&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3510,7 +4121,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f t="shared" si="0"/>
+        <f>C24&amp;" "&amp;D24&amp;" "&amp;IF(E24&lt;&gt;"","("&amp;E24&amp;")","")&amp;IF(C25&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3528,7 +4139,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f t="shared" si="0"/>
+        <f>C25&amp;" "&amp;D25&amp;" "&amp;IF(E25&lt;&gt;"","("&amp;E25&amp;")","")&amp;IF(C26&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3546,7 +4157,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f t="shared" si="0"/>
+        <f>C26&amp;" "&amp;D26&amp;" "&amp;IF(E26&lt;&gt;"","("&amp;E26&amp;")","")&amp;IF(C27&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -3612,15 +4223,1086 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{889A1A69-7B95-44F8-A6DB-6827330703FC}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45086</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table buytters (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>id int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>user_id varchar (20),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="3">
+        <v>140</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>comment varchar (140),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="3">
+        <v>140</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>buypic varchar (140),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>created_at timestamp ,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">update_at timestamp </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0606B6-CB70-485A-9023-F73FD289765F}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="10" width="7.54296875" customWidth="1"/>
+    <col min="11" max="12" width="18.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45086</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table payments (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>id int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>category varchar (20),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>paymoney int ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>created_at timestamp ,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>update_at timestamp ,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="3">
+        <v>20</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L15" t="str">
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>user_id varchar (20)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" ref="L18:L29" si="0">C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3626F4E-A92C-4C12-92B0-1F20278ED3BE}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3634,13 +5316,13 @@
     <col min="7" max="7" width="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.81640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.453125" customWidth="1"/>
     <col min="12" max="12" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -3674,7 +5356,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3686,7 +5368,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3734,19 +5416,21 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="3">
-        <v>20</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="H10" s="3" t="s">
         <v>28</v>
       </c>
@@ -3754,7 +5438,7 @@
       <c r="J10" s="3"/>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>user_id varchar (20),</v>
+        <v>id int ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -3762,10 +5446,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>27</v>
@@ -3779,10 +5463,12 @@
         <v>28</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user_pw varchar (20),</v>
+        <v>user_id varchar (20),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -3790,10 +5476,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>27</v>
@@ -3810,7 +5496,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>user_name varchar (20),</v>
+        <v>user_pw varchar (20),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -3818,29 +5504,27 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
-        <v>28</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E13" s="3">
+        <v>20</v>
+      </c>
+      <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>id int ,</v>
+        <v>user_name varchar (20),</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -3848,13 +5532,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3862,7 +5546,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
@@ -3874,13 +5558,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -3888,7 +5572,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>

--- a/doc/04_DB定義書_新イフリート改_0609.xlsx
+++ b/doc/04_DB定義書_新イフリート改_0609.xlsx
@@ -8,21 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC551703-4A01-43BE-BACB-88F4C1A6C95D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A1A903-8A93-49B6-919C-B3F3C4FCD425}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
-    <sheet name="検索履歴テーブル" sheetId="14" r:id="rId2"/>
-    <sheet name="ポイントテーブル" sheetId="13" r:id="rId3"/>
-    <sheet name="ナイスバイカウントテーブル" sheetId="12" r:id="rId4"/>
-    <sheet name="キャラクターイメージテーブル" sheetId="11" r:id="rId5"/>
-    <sheet name="キャラクターステータステーブル" sheetId="10" r:id="rId6"/>
-    <sheet name="目標テーブル" sheetId="4" r:id="rId7"/>
-    <sheet name="投稿テーブル" sheetId="5" r:id="rId8"/>
-    <sheet name="収支テーブル" sheetId="3" r:id="rId9"/>
-    <sheet name="IDPW" sheetId="8" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="15" r:id="rId2"/>
+    <sheet name="装飾品ステータステーブル" sheetId="17" r:id="rId3"/>
+    <sheet name="装飾品イメージテーブル" sheetId="16" r:id="rId4"/>
+    <sheet name="検索履歴テーブル" sheetId="14" r:id="rId5"/>
+    <sheet name="ポイントテーブル" sheetId="13" r:id="rId6"/>
+    <sheet name="ナイスバイカウントテーブル" sheetId="12" r:id="rId7"/>
+    <sheet name="目標テーブル" sheetId="4" r:id="rId8"/>
+    <sheet name="キャラクターイメージテーブル" sheetId="11" r:id="rId9"/>
+    <sheet name="キャラクターステータステーブル" sheetId="10" r:id="rId10"/>
+    <sheet name="投稿テーブル" sheetId="5" r:id="rId11"/>
+    <sheet name="収支テーブル" sheetId="3" r:id="rId12"/>
+    <sheet name="IDPW" sheetId="8" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="123">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -280,10 +283,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>category</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>金額</t>
     <rPh sb="0" eb="2">
       <t>キンガク</t>
@@ -291,10 +290,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>paymoney</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>date</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -306,10 +301,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>goal</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>期間</t>
     <rPh sb="0" eb="2">
       <t>キカン</t>
@@ -317,15 +308,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>limit</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ほしいもの</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>want</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -340,10 +323,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>comment</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>買った画像</t>
     <rPh sb="0" eb="1">
       <t>カ</t>
@@ -354,10 +333,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>buypic</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>キャラクター名</t>
     <rPh sb="6" eb="7">
       <t>メイ</t>
@@ -383,10 +358,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ランキングテーブル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>目標テーブル</t>
     <rPh sb="0" eb="2">
       <t>モクヒョウ</t>
@@ -421,22 +392,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ランキング表示の際に主に使用</t>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>オモ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>目標設定画面や各画面の目標出力の際に使用</t>
     <rPh sb="0" eb="4">
       <t>モクヒョウセッテイ</t>
@@ -499,10 +454,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ranks</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>goals</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -625,10 +576,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>available</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ポイントテーブル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -704,11 +651,164 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>want_pic</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>c_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>items</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必要ポイント</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>装飾品ID</t>
+    <rPh sb="0" eb="3">
+      <t>ソウショクヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item_pic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>装飾品画像</t>
+    <rPh sb="0" eb="3">
+      <t>ソウショクヒン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>装飾品のID</t>
+    <rPh sb="0" eb="3">
+      <t>ソウショクヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>装飾品の画像</t>
+    <rPh sb="0" eb="3">
+      <t>ソウショクヒン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>装飾品の値段</t>
+    <rPh sb="0" eb="3">
+      <t>ソウショクヒン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ネダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>装飾品イメージテーブル</t>
+    <rPh sb="0" eb="3">
+      <t>ソウショクヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>itemspics</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>装飾品ステータステーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>装飾品のIDと画像と値段が紐づけて格納されているテーブル</t>
+    <rPh sb="0" eb="3">
+      <t>ソウショクヒン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ネダン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誰がどの装飾品を持っているかの判断</t>
+    <rPh sb="0" eb="1">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ソウショクヒン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハンダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>装飾品イメージテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item_point</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pay_category</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pay_money</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b_comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b_pic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>g_goal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>g_limit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>g_want</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>g_wantpic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>g_available</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -846,6 +946,1289 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>588819</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>523009</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>126423</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83C25805-9258-40BE-9EDD-DA092EFD1CC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3648364" y="230909"/>
+          <a:ext cx="2993736" cy="2481696"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>収支</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>27709</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>35792</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>576118</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>89477</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B83DC447-8D16-4775-9734-729715806047}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5534891" y="197428"/>
+          <a:ext cx="2996045" cy="2478231"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>キャラクターステータス</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>id</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>作成日時</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>更新日時</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>180110</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>116609</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>53686</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A82558C-5B04-4ECB-A343-8B9E0F0F5607}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7523019" y="161636"/>
+          <a:ext cx="2996045" cy="2478232"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>キャラクターイメージ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>id</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>作成日時</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>更新日時</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>346365</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>280555</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3144C569-1D1A-46C8-B0B4-4E5322191A87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525001" y="275936"/>
+          <a:ext cx="2993736" cy="2478232"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>目標</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>id</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>作成日時</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>更新日時</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>348672</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>136236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>285172</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF30339F-2759-41DC-B5E7-C39C583E86E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10751127" y="297872"/>
+          <a:ext cx="2996045" cy="2481695"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ナイスバイカウント</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>id</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>作成日時</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>更新日時</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>593437</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>31172</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>529937</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>88323</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E19AEF5C-E88A-4011-91AA-76CA2C7BB4C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11607801" y="354445"/>
+          <a:ext cx="2996045" cy="2481696"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ポイント</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>id</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>作成日時</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>更新日時</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>226291</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>99289</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>162790</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>156440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4FE534B-510F-4586-AB67-3B11B7728568}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14300200" y="99289"/>
+          <a:ext cx="2996045" cy="2481696"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>検索履歴</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>id</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>作成日時</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>更新日時</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>450273</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>5774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>384463</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>62923</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1FA34E7-9B07-43A2-AA53-73EDB9A71D24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16971818" y="167410"/>
+          <a:ext cx="2993736" cy="2481695"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>収支</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>id</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>作成日時</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>更新日時</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>259196</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>90632</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>230910</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>147782</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="14" name="グループ化 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17F881E9-74AE-4FCB-B099-A8E2CF9EC125}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="259196" y="252268"/>
+          <a:ext cx="3031259" cy="2481696"/>
+          <a:chOff x="951923" y="148359"/>
+          <a:chExt cx="3031259" cy="2481696"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="正方形/長方形 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{833E5DC1-E144-4E3F-B625-DD1014E5896C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="951923" y="148359"/>
+            <a:ext cx="2996046" cy="2481696"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>IDPW</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>id</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>作成日時</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>更新日時</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>ID</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>名</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>PW</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>ユーザ名</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="13" name="直線コネクタ 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8118584-77AE-4D00-8B6E-8C9623D3F8E8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="969819" y="565727"/>
+            <a:ext cx="3013363" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>602673</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>71581</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>588818</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>125267</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="17" name="グループ化 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A70C6C89-BDB4-4D37-AD4F-024EC8CF16C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1826491" y="3304308"/>
+          <a:ext cx="3045691" cy="2478232"/>
+          <a:chOff x="1826491" y="3304308"/>
+          <a:chExt cx="3045691" cy="2478232"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="正方形/長方形 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F9B178E-225B-4AB8-9BD5-B5CBFDC90908}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1826491" y="3304308"/>
+            <a:ext cx="2996045" cy="2478232"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>投稿</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>id</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>作成日時</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>更新日時</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="16" name="直線コネクタ 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F429C8-96C2-44DA-8E69-3E18B34E432F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="1847273" y="3683000"/>
+            <a:ext cx="3024909" cy="23091"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1172,10 +2555,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1252,16 +2635,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1269,16 +2652,16 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1286,16 +2669,16 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1303,32 +2686,32 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
         <v>5</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="C12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1336,17 +2719,17 @@
       <c r="B13" s="3">
         <v>6</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>75</v>
+      <c r="C13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1354,16 +2737,16 @@
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1371,16 +2754,16 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1388,16 +2771,16 @@
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -1405,26 +2788,34 @@
         <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="3">
         <v>11</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="3">
@@ -1596,15 +2987,6 @@
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="3">
-        <v>31</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1614,10 +2996,1602 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08DF71E-4AF6-47A6-A581-1547715BA51B}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45086</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table chars (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>id int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>user_id varchar (20),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="3">
+        <v>20</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>char_id varchar (20),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>created_at timestamp ,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">update_at timestamp </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{889A1A69-7B95-44F8-A6DB-6827330703FC}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45086</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table buytters (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>id int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>user_id varchar (20),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="3">
+        <v>140</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>b_comment varchar (140),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="3">
+        <v>140</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>b_pic varchar (140),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>created_at timestamp ,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">update_at timestamp </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0606B6-CB70-485A-9023-F73FD289765F}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="10" width="7.54296875" customWidth="1"/>
+    <col min="11" max="12" width="18.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45086</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table payments (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f t="shared" ref="L10:L17" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>id int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f t="shared" si="0"/>
+        <v>pay_category varchar (20),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>pay_money int ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v>created_at timestamp ,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v>update_at timestamp ,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="3">
+        <v>20</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="0"/>
+        <v>user_id varchar (20)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" ref="L18:L29" si="1">C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3626F4E-A92C-4C12-92B0-1F20278ED3BE}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -1638,7 +4612,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1672,7 +4646,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1684,7 +4658,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1780,7 +4754,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2160,18 +5134,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45687263-D77C-4890-ADCD-E330F078AF7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C7BBFC-5DD6-4818-B942-AAF0C0A37A29}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79624A17-55DE-4E78-8F5B-7D6F199EA190}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -2205,7 +5195,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2217,7 +5207,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2257,7 +5247,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table historys (</v>
+        <v>create table items (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -2313,7 +5303,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2325,16 +5315,16 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="3">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -2342,8 +5332,1064 @@
         <v>28</v>
       </c>
       <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>item_id varchar (20),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>created_at timestamp ,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">update_at timestamp </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" ref="L16:L29" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFE5C9E-19FB-4F93-90F1-43D1D56D6D32}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45086</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table items (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>id int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>item_id varchar (20),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="3">
+        <v>140</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
+      </c>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>item_pic varchar (140),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>item_point int ,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>created_at timestamp ,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" t="str">
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">update_at timestamp </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" ref="L16:L29" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f>C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f>C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f>C19&amp;" "&amp;D19&amp;" "&amp;IF(E19&lt;&gt;"","("&amp;E19&amp;")","")&amp;IF(C20&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f>C20&amp;" "&amp;D20&amp;" "&amp;IF(E20&lt;&gt;"","("&amp;E20&amp;")","")&amp;IF(C21&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45687263-D77C-4890-ADCD-E330F078AF7E}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45086</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table historys (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>id int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>user_id varchar (20),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="3">
+        <v>140</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -2683,7 +6729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F08E1DA-ADAA-4472-B164-D3113B089D91}">
   <dimension ref="A1:L30"/>
   <sheetViews>
@@ -2695,7 +6741,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -2729,7 +6775,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2741,7 +6787,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2837,7 +6883,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2849,10 +6895,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>32</v>
@@ -2865,7 +6911,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -3205,19 +7251,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55914BE-0386-40E6-B566-8B4B24E6224A}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -3251,7 +7297,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3339,10 +7385,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>27</v>
@@ -3355,7 +7401,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -3367,10 +7413,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>32</v>
@@ -3721,12 +7767,583 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D647C06-64F6-454C-92C3-3011A5249394}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45086</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table goals (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>id int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>g_goal int ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>g_limit date ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="3">
+        <v>140</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>g_want varchar (140),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="3">
+        <v>140</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>g_wantpic varchar (140),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>created_at timestamp ,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v>update_at timestamp ,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="3">
+        <v>20</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v>c_name varchar (20),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="3">
+        <v>20</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v>user_id varchar (20),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">g_available int </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47546167-CC85-4A9E-8A61-6235D86E74DD}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3736,7 +8353,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -3770,7 +8387,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3782,7 +8399,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3860,10 +8477,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>27</v>
@@ -3888,10 +8505,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>27</v>
@@ -4242,2167 +8859,4 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08DF71E-4AF6-47A6-A581-1547715BA51B}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45086</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table chars (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>id int ,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="3">
-        <v>20</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user_id varchar (20),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="3">
-        <v>20</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>char_id varchar (20),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>created_at timestamp ,</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">update_at timestamp </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D647C06-64F6-454C-92C3-3011A5249394}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45086</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table goals (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>id int ,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>goal int ,</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>limit date ,</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="3">
-        <v>140</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>want varchar (140),</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="3">
-        <v>140</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>want_pic varchar (140),</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>created_at timestamp ,</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v>update_at timestamp ,</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="3">
-        <v>20</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v>c_name varchar (20),</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="3">
-        <v>20</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v>user_id varchar (20),</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">available int </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{889A1A69-7B95-44F8-A6DB-6827330703FC}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45086</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table buytters (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>id int ,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="3">
-        <v>20</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user_id varchar (20),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="3">
-        <v>140</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>comment varchar (140),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="3">
-        <v>140</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>buypic varchar (140),</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>created_at timestamp ,</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">update_at timestamp </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0606B6-CB70-485A-9023-F73FD289765F}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="10" width="7.54296875" customWidth="1"/>
-    <col min="11" max="12" width="18.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45086</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table payments (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f t="shared" ref="L10:L17" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>id int ,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="3">
-        <v>20</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f t="shared" si="0"/>
-        <v>category varchar (20),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f t="shared" si="0"/>
-        <v>paymoney int ,</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L13" t="str">
-        <f t="shared" si="0"/>
-        <v>created_at timestamp ,</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L14" t="str">
-        <f t="shared" si="0"/>
-        <v>update_at timestamp ,</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="3">
-        <v>20</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="L15" t="str">
-        <f t="shared" si="0"/>
-        <v>user_id varchar (20)</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" ref="L18:L29" si="1">C18&amp;" "&amp;D18&amp;" "&amp;IF(E18&lt;&gt;"","("&amp;E18&amp;")","")&amp;IF(C19&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/doc/04_DB定義書_新イフリート改_0609.xlsx
+++ b/doc/04_DB定義書_新イフリート改_0609.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A1A903-8A93-49B6-919C-B3F3C4FCD425}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDAE4F6-AC77-41B6-B19E-C39E0EDAA826}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29985" yWindow="345" windowWidth="25635" windowHeight="13065" tabRatio="875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="15" r:id="rId2"/>
+    <sheet name="ER図もどき" sheetId="15" r:id="rId2"/>
     <sheet name="装飾品ステータステーブル" sheetId="17" r:id="rId3"/>
     <sheet name="装飾品イメージテーブル" sheetId="16" r:id="rId4"/>
     <sheet name="検索履歴テーブル" sheetId="14" r:id="rId5"/>
@@ -950,1282 +950,54 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>588819</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>239279</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>69273</xdr:rowOff>
+      <xdr:rowOff>47601</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>523009</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>126423</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>121227</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83C25805-9258-40BE-9EDD-DA092EFD1CC2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF72FB65-78AC-47C0-9ECC-52F6AB724005}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3648364" y="230909"/>
-          <a:ext cx="2993736" cy="2481696"/>
+          <a:off x="239279" y="203465"/>
+          <a:ext cx="22153130" cy="10516489"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>収支</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>27709</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>35792</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>576118</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>89477</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B83DC447-8D16-4775-9734-729715806047}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5534891" y="197428"/>
-          <a:ext cx="2996045" cy="2478231"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>キャラクターステータス</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>id</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>作成日時</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>更新日時</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>180110</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>116609</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>53686</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A82558C-5B04-4ECB-A343-8B9E0F0F5607}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7523019" y="161636"/>
-          <a:ext cx="2996045" cy="2478232"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>キャラクターイメージ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>id</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>作成日時</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>更新日時</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>346365</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>280555</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3144C569-1D1A-46C8-B0B4-4E5322191A87}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9525001" y="275936"/>
-          <a:ext cx="2993736" cy="2478232"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>目標</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>id</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>作成日時</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>更新日時</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>348672</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>136236</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>285172</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>31749</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF30339F-2759-41DC-B5E7-C39C583E86E8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10751127" y="297872"/>
-          <a:ext cx="2996045" cy="2481695"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ナイスバイカウント</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>id</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>作成日時</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>更新日時</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>593437</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>31172</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>529937</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>88323</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E19AEF5C-E88A-4011-91AA-76CA2C7BB4C6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11607801" y="354445"/>
-          <a:ext cx="2996045" cy="2481696"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ポイント</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>id</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>作成日時</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>更新日時</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>226291</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>99289</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>162790</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>156440</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4FE534B-510F-4586-AB67-3B11B7728568}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14300200" y="99289"/>
-          <a:ext cx="2996045" cy="2481696"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>検索履歴</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>id</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>作成日時</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>更新日時</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>450273</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>5774</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>384463</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>62923</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1FA34E7-9B07-43A2-AA53-73EDB9A71D24}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16971818" y="167410"/>
-          <a:ext cx="2993736" cy="2481695"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>収支</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>id</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>作成日時</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>更新日時</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>259196</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>90632</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>230910</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>147782</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="14" name="グループ化 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17F881E9-74AE-4FCB-B099-A8E2CF9EC125}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="259196" y="252268"/>
-          <a:ext cx="3031259" cy="2481696"/>
-          <a:chOff x="951923" y="148359"/>
-          <a:chExt cx="3031259" cy="2481696"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="2" name="正方形/長方形 1">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{833E5DC1-E144-4E3F-B625-DD1014E5896C}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="951923" y="148359"/>
-            <a:ext cx="2996046" cy="2481696"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>IDPW</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>id</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>作成日時</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>更新日時</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>ID</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>名</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>PW</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>ユーザ名</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="13" name="直線コネクタ 12">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8118584-77AE-4D00-8B6E-8C9623D3F8E8}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="969819" y="565727"/>
-            <a:ext cx="3013363" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>602673</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>71581</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>588818</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>125267</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="17" name="グループ化 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A70C6C89-BDB4-4D37-AD4F-024EC8CF16C6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1826491" y="3304308"/>
-          <a:ext cx="3045691" cy="2478232"/>
-          <a:chOff x="1826491" y="3304308"/>
-          <a:chExt cx="3045691" cy="2478232"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="正方形/長方形 3">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F9B178E-225B-4AB8-9BD5-B5CBFDC90908}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1826491" y="3304308"/>
-            <a:ext cx="2996045" cy="2478232"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>投稿</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>id</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>作成日時</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>更新日時</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="16" name="直線コネクタ 15">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F429C8-96C2-44DA-8E69-3E18B34E432F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipV="1">
-            <a:off x="1847273" y="3683000"/>
-            <a:ext cx="3024909" cy="23091"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2557,7 +1329,7 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -5137,8 +3909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C7BBFC-5DD6-4818-B942-AAF0C0A37A29}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AT32" sqref="AT32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -5276,7 +4048,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L10:L15" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>id int ,</v>
       </c>
     </row>
@@ -5306,7 +4078,7 @@
         <v>69</v>
       </c>
       <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>user_id varchar (20),</v>
       </c>
     </row>
@@ -5334,7 +4106,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>item_id varchar (20),</v>
       </c>
     </row>
@@ -5360,7 +4132,7 @@
         <v>36</v>
       </c>
       <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>created_at timestamp ,</v>
       </c>
     </row>
@@ -5386,7 +4158,7 @@
         <v>36</v>
       </c>
       <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">update_at timestamp </v>
       </c>
     </row>
@@ -5404,7 +4176,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5422,7 +4194,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" ref="L16:L29" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L16:L29" si="1">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5512,7 +4284,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5530,7 +4302,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5548,7 +4320,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5566,7 +4338,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5584,7 +4356,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5602,7 +4374,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5620,7 +4392,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5638,7 +4410,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5656,7 +4428,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -5798,7 +4570,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L10:L15" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>id int ,</v>
       </c>
     </row>
@@ -5828,7 +4600,7 @@
         <v>104</v>
       </c>
       <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>item_id varchar (20),</v>
       </c>
     </row>
@@ -5858,7 +4630,7 @@
         <v>105</v>
       </c>
       <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>item_pic varchar (140),</v>
       </c>
     </row>
@@ -5886,7 +4658,7 @@
         <v>106</v>
       </c>
       <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>item_point int ,</v>
       </c>
     </row>
@@ -5912,7 +4684,7 @@
         <v>36</v>
       </c>
       <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v>created_at timestamp ,</v>
       </c>
     </row>
@@ -5938,7 +4710,7 @@
         <v>36</v>
       </c>
       <c r="L15" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">update_at timestamp </v>
       </c>
     </row>
@@ -5956,7 +4728,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" ref="L16:L29" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L16:L29" si="1">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6046,7 +4818,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6064,7 +4836,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6082,7 +4854,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6100,7 +4872,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6118,7 +4890,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6136,7 +4908,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6154,7 +4926,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6172,7 +4944,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6190,7 +4962,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -7255,7 +6027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55914BE-0386-40E6-B566-8B4B24E6224A}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -7771,8 +6543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D647C06-64F6-454C-92C3-3011A5249394}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>

--- a/doc/04_DB定義書_新イフリート改_0609.xlsx
+++ b/doc/04_DB定義書_新イフリート改_0609.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDAE4F6-AC77-41B6-B19E-C39E0EDAA826}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A1A903-8A93-49B6-919C-B3F3C4FCD425}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29985" yWindow="345" windowWidth="25635" windowHeight="13065" tabRatio="875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
-    <sheet name="ER図もどき" sheetId="15" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="15" r:id="rId2"/>
     <sheet name="装飾品ステータステーブル" sheetId="17" r:id="rId3"/>
     <sheet name="装飾品イメージテーブル" sheetId="16" r:id="rId4"/>
     <sheet name="検索履歴テーブル" sheetId="14" r:id="rId5"/>
@@ -950,54 +950,1282 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>239279</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>588819</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>47601</xdr:rowOff>
+      <xdr:rowOff>69273</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>121227</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>523009</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>126423</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="図 14">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF72FB65-78AC-47C0-9ECC-52F6AB724005}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83C25805-9258-40BE-9EDD-DA092EFD1CC2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="239279" y="203465"/>
-          <a:ext cx="22153130" cy="10516489"/>
+          <a:off x="3648364" y="230909"/>
+          <a:ext cx="2993736" cy="2481696"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
-    </xdr:pic>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>収支</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>27709</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>35792</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>576118</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>89477</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B83DC447-8D16-4775-9734-729715806047}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5534891" y="197428"/>
+          <a:ext cx="2996045" cy="2478231"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>キャラクターステータス</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>id</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>作成日時</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>更新日時</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>180110</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>116609</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>53686</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A82558C-5B04-4ECB-A343-8B9E0F0F5607}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7523019" y="161636"/>
+          <a:ext cx="2996045" cy="2478232"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>キャラクターイメージ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>id</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>作成日時</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>更新日時</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>346365</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>280555</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3144C569-1D1A-46C8-B0B4-4E5322191A87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525001" y="275936"/>
+          <a:ext cx="2993736" cy="2478232"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>目標</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>id</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>作成日時</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>更新日時</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>348672</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>136236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>285172</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF30339F-2759-41DC-B5E7-C39C583E86E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10751127" y="297872"/>
+          <a:ext cx="2996045" cy="2481695"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ナイスバイカウント</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>id</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>作成日時</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>更新日時</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>593437</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>31172</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>529937</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>88323</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E19AEF5C-E88A-4011-91AA-76CA2C7BB4C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11607801" y="354445"/>
+          <a:ext cx="2996045" cy="2481696"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ポイント</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>id</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>作成日時</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>更新日時</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>226291</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>99289</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>162790</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>156440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4FE534B-510F-4586-AB67-3B11B7728568}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14300200" y="99289"/>
+          <a:ext cx="2996045" cy="2481696"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>検索履歴</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>id</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>作成日時</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>更新日時</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>450273</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>5774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>384463</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>62923</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1FA34E7-9B07-43A2-AA53-73EDB9A71D24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16971818" y="167410"/>
+          <a:ext cx="2993736" cy="2481695"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>収支</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>id</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>作成日時</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>更新日時</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>259196</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>90632</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>230910</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>147782</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="14" name="グループ化 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17F881E9-74AE-4FCB-B099-A8E2CF9EC125}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="259196" y="252268"/>
+          <a:ext cx="3031259" cy="2481696"/>
+          <a:chOff x="951923" y="148359"/>
+          <a:chExt cx="3031259" cy="2481696"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="正方形/長方形 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{833E5DC1-E144-4E3F-B625-DD1014E5896C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="951923" y="148359"/>
+            <a:ext cx="2996046" cy="2481696"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>IDPW</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>id</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>作成日時</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>更新日時</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>ID</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>名</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+              <a:t>PW</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>ユーザ名</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="13" name="直線コネクタ 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8118584-77AE-4D00-8B6E-8C9623D3F8E8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="969819" y="565727"/>
+            <a:ext cx="3013363" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>602673</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>71581</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>588818</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>125267</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="17" name="グループ化 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A70C6C89-BDB4-4D37-AD4F-024EC8CF16C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1826491" y="3304308"/>
+          <a:ext cx="3045691" cy="2478232"/>
+          <a:chOff x="1826491" y="3304308"/>
+          <a:chExt cx="3045691" cy="2478232"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="正方形/長方形 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F9B178E-225B-4AB8-9BD5-B5CBFDC90908}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1826491" y="3304308"/>
+            <a:ext cx="2996045" cy="2478232"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="lt1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>投稿</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>id</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>作成日時</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>更新日時</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="16" name="直線コネクタ 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48F429C8-96C2-44DA-8E69-3E18B34E432F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="1847273" y="3683000"/>
+            <a:ext cx="3024909" cy="23091"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1329,7 +2557,7 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -3909,8 +5137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C7BBFC-5DD6-4818-B942-AAF0C0A37A29}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AT32" sqref="AT32"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4048,7 +5276,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
-        <f t="shared" ref="L10:L15" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>id int ,</v>
       </c>
     </row>
@@ -4078,7 +5306,7 @@
         <v>69</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" si="0"/>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>user_id varchar (20),</v>
       </c>
     </row>
@@ -4106,7 +5334,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" t="str">
-        <f t="shared" si="0"/>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>item_id varchar (20),</v>
       </c>
     </row>
@@ -4132,7 +5360,7 @@
         <v>36</v>
       </c>
       <c r="L13" t="str">
-        <f t="shared" si="0"/>
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v>created_at timestamp ,</v>
       </c>
     </row>
@@ -4158,7 +5386,7 @@
         <v>36</v>
       </c>
       <c r="L14" t="str">
-        <f t="shared" si="0"/>
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v xml:space="preserve">update_at timestamp </v>
       </c>
     </row>
@@ -4176,7 +5404,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="L15" t="str">
-        <f t="shared" si="0"/>
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4194,7 +5422,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" ref="L16:L29" si="1">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L16:L29" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4284,7 +5512,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4302,7 +5530,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4320,7 +5548,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4338,7 +5566,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4356,7 +5584,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4374,7 +5602,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4392,7 +5620,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4410,7 +5638,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4428,7 +5656,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4570,7 +5798,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="L10" t="str">
-        <f t="shared" ref="L10:L15" si="0">C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
         <v>id int ,</v>
       </c>
     </row>
@@ -4600,7 +5828,7 @@
         <v>104</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" si="0"/>
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>item_id varchar (20),</v>
       </c>
     </row>
@@ -4630,7 +5858,7 @@
         <v>105</v>
       </c>
       <c r="L12" t="str">
-        <f t="shared" si="0"/>
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
         <v>item_pic varchar (140),</v>
       </c>
     </row>
@@ -4658,7 +5886,7 @@
         <v>106</v>
       </c>
       <c r="L13" t="str">
-        <f t="shared" si="0"/>
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
         <v>item_point int ,</v>
       </c>
     </row>
@@ -4684,7 +5912,7 @@
         <v>36</v>
       </c>
       <c r="L14" t="str">
-        <f t="shared" si="0"/>
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v>created_at timestamp ,</v>
       </c>
     </row>
@@ -4710,7 +5938,7 @@
         <v>36</v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" si="0"/>
+        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v xml:space="preserve">update_at timestamp </v>
       </c>
     </row>
@@ -4728,7 +5956,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" ref="L16:L29" si="1">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <f t="shared" ref="L16:L29" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4818,7 +6046,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="L21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4836,7 +6064,7 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="L22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4854,7 +6082,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="L23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4872,7 +6100,7 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="L24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4890,7 +6118,7 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="L25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4908,7 +6136,7 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="L26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4926,7 +6154,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="L27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4944,7 +6172,7 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="L28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -4962,7 +6190,7 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="L29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
       </c>
     </row>
@@ -6027,7 +7255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55914BE-0386-40E6-B566-8B4B24E6224A}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -6543,8 +7771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D647C06-64F6-454C-92C3-3011A5249394}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>

--- a/doc/04_DB定義書_新イフリート改_0609.xlsx
+++ b/doc/04_DB定義書_新イフリート改_0609.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDAE4F6-AC77-41B6-B19E-C39E0EDAA826}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B780784-FCD7-44E9-A88A-7987334EB626}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29985" yWindow="345" windowWidth="25635" windowHeight="13065" tabRatio="875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="875" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -22,8 +22,8 @@
     <sheet name="ナイスバイカウントテーブル" sheetId="12" r:id="rId7"/>
     <sheet name="目標テーブル" sheetId="4" r:id="rId8"/>
     <sheet name="キャラクターイメージテーブル" sheetId="11" r:id="rId9"/>
-    <sheet name="キャラクターステータステーブル" sheetId="10" r:id="rId10"/>
-    <sheet name="投稿テーブル" sheetId="5" r:id="rId11"/>
+    <sheet name="投稿テーブル" sheetId="5" r:id="rId10"/>
+    <sheet name="キャラクターステータステーブル" sheetId="10" r:id="rId11"/>
     <sheet name="収支テーブル" sheetId="3" r:id="rId12"/>
     <sheet name="IDPW" sheetId="8" r:id="rId13"/>
   </sheets>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="124">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -301,13 +301,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>期間</t>
-    <rPh sb="0" eb="2">
-      <t>キカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ほしいもの</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -340,10 +333,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>IDPWテーブル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>収支テーブル</t>
     <rPh sb="0" eb="2">
       <t>シュウシ</t>
@@ -466,10 +455,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>chars</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザが育成してきたキャラクター一覧</t>
     <rPh sb="4" eb="6">
       <t>イクセイ</t>
@@ -698,16 +683,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>装飾品の画像</t>
-    <rPh sb="0" eb="3">
-      <t>ソウショクヒン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>装飾品の値段</t>
     <rPh sb="0" eb="3">
       <t>ソウショクヒン</t>
@@ -809,6 +784,41 @@
   </si>
   <si>
     <t>g_available</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>png固定</t>
+    <rPh sb="3" eb="5">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>装飾品の画像　png固定</t>
+    <rPh sb="0" eb="3">
+      <t>ソウショクヒン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>characters</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定日付</t>
+    <rPh sb="0" eb="4">
+      <t>セッテイヒヅケ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1330,7 +1340,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1407,16 +1417,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1424,16 +1434,16 @@
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1441,16 +1451,16 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1458,16 +1468,16 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1475,16 +1485,16 @@
         <v>5</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1492,16 +1502,16 @@
         <v>6</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -1509,16 +1519,16 @@
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1526,16 +1536,16 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1543,16 +1553,16 @@
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
@@ -1560,16 +1570,16 @@
         <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
@@ -1577,16 +1587,16 @@
         <v>11</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
@@ -1768,18 +1778,18 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08DF71E-4AF6-47A6-A581-1547715BA51B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{889A1A69-7B95-44F8-A6DB-6827330703FC}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1813,7 +1823,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1825,7 +1835,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1865,7 +1875,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table chars (</v>
+        <v>create table buytters (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1921,7 +1931,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -1933,10 +1943,547 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>68</v>
+        <v>112</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="3">
+        <v>140</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>b_comment varchar (140),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="3">
+        <v>140</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>b_pic varchar (140),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>created_at timestamp ,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">update_at timestamp </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08DF71E-4AF6-47A6-A581-1547715BA51B}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45086</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table characters (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>id int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>user_id varchar (20),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>27</v>
@@ -2279,543 +2826,6 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{889A1A69-7B95-44F8-A6DB-6827330703FC}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45086</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table buytters (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>id int ,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="3">
-        <v>20</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user_id varchar (20),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="3">
-        <v>140</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>b_comment varchar (140),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="3">
-        <v>140</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>b_pic varchar (140),</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>created_at timestamp ,</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">update_at timestamp </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
       <c r="L30" t="s">
         <v>20</v>
       </c>
@@ -2842,7 +2852,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -2876,7 +2886,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2888,7 +2898,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2969,7 +2979,7 @@
         <v>39</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>27</v>
@@ -2997,7 +3007,7 @@
         <v>40</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>32</v>
@@ -3090,7 +3100,7 @@
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
@@ -3364,7 +3374,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3384,7 +3394,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -3418,7 +3428,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3430,7 +3440,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3526,7 +3536,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -3909,7 +3919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C7BBFC-5DD6-4818-B942-AAF0C0A37A29}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AT32" sqref="AT32"/>
     </sheetView>
   </sheetViews>
@@ -3926,14 +3936,14 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -3967,7 +3977,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -3979,7 +3989,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4075,7 +4085,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="0"/>
@@ -4087,10 +4097,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>27</v>
@@ -4447,15 +4457,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFE5C9E-19FB-4F93-90F1-43D1D56D6D32}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -4489,7 +4499,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -4501,7 +4511,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4541,7 +4551,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table items (</v>
+        <v>create table itemspics (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -4579,10 +4589,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>27</v>
@@ -4597,7 +4607,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="0"/>
@@ -4609,10 +4619,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>27</v>
@@ -4627,7 +4637,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
@@ -4639,10 +4649,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>32</v>
@@ -4655,7 +4665,7 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="L13" t="str">
         <f t="shared" si="0"/>
@@ -4989,7 +4999,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -5023,7 +5033,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -5035,7 +5045,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -5131,7 +5141,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -5143,10 +5153,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>27</v>
@@ -5161,7 +5171,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -5505,15 +5515,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F08E1DA-ADAA-4472-B164-D3113B089D91}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -5547,7 +5557,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -5559,7 +5569,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -5655,7 +5665,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -5667,10 +5677,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>32</v>
@@ -5683,7 +5693,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
@@ -6028,14 +6038,14 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -6069,7 +6079,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -6157,10 +6167,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>27</v>
@@ -6173,7 +6183,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -6185,10 +6195,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>32</v>
@@ -6551,7 +6561,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -6585,7 +6595,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -6597,7 +6607,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -6678,7 +6688,7 @@
         <v>42</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>32</v>
@@ -6701,10 +6711,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>41</v>
@@ -6727,10 +6737,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>27</v>
@@ -6753,10 +6763,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>27</v>
@@ -6768,7 +6778,9 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
         <v>g_wantpic varchar (140),</v>
@@ -6831,10 +6843,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>27</v>
@@ -6877,7 +6889,7 @@
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
@@ -6889,10 +6901,10 @@
         <v>10</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>32</v>
@@ -7115,7 +7127,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -7125,7 +7137,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -7159,7 +7171,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -7171,7 +7183,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -7249,10 +7261,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>27</v>
@@ -7277,10 +7289,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>27</v>

--- a/doc/04_DB定義書_新イフリート改_0609.xlsx
+++ b/doc/04_DB定義書_新イフリート改_0609.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B780784-FCD7-44E9-A88A-7987334EB626}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE374B1-C6E6-4B5F-A7FF-2F7DD81ECBCB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="875" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29985" yWindow="105" windowWidth="25635" windowHeight="11580" tabRatio="875" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="投稿テーブル" sheetId="5" r:id="rId10"/>
     <sheet name="キャラクターステータステーブル" sheetId="10" r:id="rId11"/>
     <sheet name="収支テーブル" sheetId="3" r:id="rId12"/>
-    <sheet name="IDPW" sheetId="8" r:id="rId13"/>
+    <sheet name="ユーザテーブル" sheetId="8" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="124">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -1340,7 +1340,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3374,7 +3374,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -5515,7 +5515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F08E1DA-ADAA-4472-B164-D3113B089D91}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -6037,8 +6037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55914BE-0386-40E6-B566-8B4B24E6224A}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -6090,7 +6090,9 @@
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
@@ -6129,7 +6131,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table  (</v>
+        <v>create table nicebuycounts (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -6554,7 +6556,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>

--- a/doc/04_DB定義書_新イフリート改_0609.xlsx
+++ b/doc/04_DB定義書_新イフリート改_0609.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE374B1-C6E6-4B5F-A7FF-2F7DD81ECBCB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474B1C4E-A316-453A-8C03-3F169DEBB1B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29985" yWindow="105" windowWidth="25635" windowHeight="11580" tabRatio="875" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31335" yWindow="1080" windowWidth="25635" windowHeight="11670" tabRatio="875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
-    <sheet name="ER図もどき" sheetId="15" r:id="rId2"/>
-    <sheet name="装飾品ステータステーブル" sheetId="17" r:id="rId3"/>
-    <sheet name="装飾品イメージテーブル" sheetId="16" r:id="rId4"/>
-    <sheet name="検索履歴テーブル" sheetId="14" r:id="rId5"/>
-    <sheet name="ポイントテーブル" sheetId="13" r:id="rId6"/>
-    <sheet name="ナイスバイカウントテーブル" sheetId="12" r:id="rId7"/>
-    <sheet name="目標テーブル" sheetId="4" r:id="rId8"/>
-    <sheet name="キャラクターイメージテーブル" sheetId="11" r:id="rId9"/>
-    <sheet name="投稿テーブル" sheetId="5" r:id="rId10"/>
-    <sheet name="キャラクターステータステーブル" sheetId="10" r:id="rId11"/>
-    <sheet name="収支テーブル" sheetId="3" r:id="rId12"/>
-    <sheet name="ユーザテーブル" sheetId="8" r:id="rId13"/>
+    <sheet name="貯金テーブル" sheetId="18" r:id="rId2"/>
+    <sheet name="ER図もどき" sheetId="15" r:id="rId3"/>
+    <sheet name="装飾品ステータステーブル" sheetId="17" r:id="rId4"/>
+    <sheet name="装飾品イメージテーブル" sheetId="16" r:id="rId5"/>
+    <sheet name="検索履歴テーブル" sheetId="14" r:id="rId6"/>
+    <sheet name="ポイントテーブル" sheetId="13" r:id="rId7"/>
+    <sheet name="ナイスバイカウントテーブル" sheetId="12" r:id="rId8"/>
+    <sheet name="目標テーブル" sheetId="4" r:id="rId9"/>
+    <sheet name="キャラクターイメージテーブル" sheetId="11" r:id="rId10"/>
+    <sheet name="投稿テーブル" sheetId="5" r:id="rId11"/>
+    <sheet name="キャラクターステータステーブル" sheetId="10" r:id="rId12"/>
+    <sheet name="収支テーブル" sheetId="3" r:id="rId13"/>
+    <sheet name="ユーザテーブル" sheetId="8" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="130">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -818,6 +819,54 @@
     <t>設定日付</t>
     <rPh sb="0" eb="4">
       <t>セッテイヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>貯金テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>チョキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>貯金の変動</t>
+    <rPh sb="0" eb="2">
+      <t>チョキン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>banks</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>貯金変動</t>
+    <rPh sb="0" eb="2">
+      <t>チョキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヘンドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b_bank</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>貯金額の変動を＋ーを格納</t>
+    <rPh sb="0" eb="3">
+      <t>チョキンガク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンドウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1339,8 +1388,8 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1603,10 +1652,18 @@
       <c r="B19" s="3">
         <v>12</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="3">
@@ -1778,6 +1835,529 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47546167-CC85-4A9E-8A61-6235D86E74DD}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="13.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45086</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table charpics (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>id int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>char_id varchar (20),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="3">
+        <v>20</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>char_pic varchar (20),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>created_at timestamp ,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">update_at timestamp </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{889A1A69-7B95-44F8-A6DB-6827330703FC}">
   <dimension ref="A1:L30"/>
   <sheetViews>
@@ -2314,7 +2894,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08DF71E-4AF6-47A6-A581-1547715BA51B}">
   <dimension ref="A1:L30"/>
   <sheetViews>
@@ -2836,7 +3416,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0606B6-CB70-485A-9023-F73FD289765F}">
   <dimension ref="A1:L30"/>
   <sheetViews>
@@ -3369,7 +3949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3626F4E-A92C-4C12-92B0-1F20278ED3BE}">
   <dimension ref="A1:L30"/>
   <sheetViews>
@@ -3916,6 +4496,528 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0587E30D-7759-4A3B-9CC0-36F668ED641D}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45086</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table banks (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>id int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>user_id varchar (20),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>b_bank int ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>created_at timestamp ,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">update_at timestamp </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C7BBFC-5DD6-4818-B942-AAF0C0A37A29}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3931,7 +5033,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79624A17-55DE-4E78-8F5B-7D6F199EA190}">
   <dimension ref="A1:L30"/>
   <sheetViews>
@@ -4453,7 +5555,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFE5C9E-19FB-4F93-90F1-43D1D56D6D32}">
   <dimension ref="A1:L30"/>
   <sheetViews>
@@ -4987,11 +6089,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45687263-D77C-4890-ADCD-E330F078AF7E}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -5511,12 +6613,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F08E1DA-ADAA-4472-B164-D3113B089D91}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -6033,11 +7135,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55914BE-0386-40E6-B566-8B4B24E6224A}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
@@ -6551,11 +7653,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D647C06-64F6-454C-92C3-3011A5249394}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -7122,527 +8224,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47546167-CC85-4A9E-8A61-6235D86E74DD}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="10" max="10" width="13.1796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45086</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table charpics (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>id int ,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="3">
-        <v>20</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>char_id varchar (20),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="3">
-        <v>20</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>char_pic varchar (20),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>created_at timestamp ,</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">update_at timestamp </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/doc/04_DB定義書_新イフリート改_0609.xlsx
+++ b/doc/04_DB定義書_新イフリート改_0609.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474B1C4E-A316-453A-8C03-3F169DEBB1B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03227F7-A453-4998-A86C-D2F237AB1357}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31335" yWindow="1080" windowWidth="25635" windowHeight="11670" tabRatio="875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33630" yWindow="45" windowWidth="21525" windowHeight="12585" tabRatio="875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
-    <sheet name="貯金テーブル" sheetId="18" r:id="rId2"/>
-    <sheet name="ER図もどき" sheetId="15" r:id="rId3"/>
+    <sheet name="ER図もどき" sheetId="15" r:id="rId2"/>
+    <sheet name="貯金テーブル" sheetId="18" r:id="rId3"/>
     <sheet name="装飾品ステータステーブル" sheetId="17" r:id="rId4"/>
     <sheet name="装飾品イメージテーブル" sheetId="16" r:id="rId5"/>
     <sheet name="検索履歴テーブル" sheetId="14" r:id="rId6"/>
     <sheet name="ポイントテーブル" sheetId="13" r:id="rId7"/>
     <sheet name="ナイスバイカウントテーブル" sheetId="12" r:id="rId8"/>
-    <sheet name="目標テーブル" sheetId="4" r:id="rId9"/>
-    <sheet name="キャラクターイメージテーブル" sheetId="11" r:id="rId10"/>
-    <sheet name="投稿テーブル" sheetId="5" r:id="rId11"/>
-    <sheet name="キャラクターステータステーブル" sheetId="10" r:id="rId12"/>
+    <sheet name="キャラクターイメージテーブル" sheetId="11" r:id="rId9"/>
+    <sheet name="キャラクターステータステーブル" sheetId="10" r:id="rId10"/>
+    <sheet name="目標テーブル" sheetId="4" r:id="rId11"/>
+    <sheet name="投稿テーブル" sheetId="5" r:id="rId12"/>
     <sheet name="収支テーブル" sheetId="3" r:id="rId13"/>
     <sheet name="ユーザテーブル" sheetId="8" r:id="rId14"/>
   </sheets>
@@ -701,10 +701,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>itemspics</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>装飾品ステータステーブル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -868,6 +864,10 @@
     <rPh sb="10" eb="12">
       <t>カクノウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>itempics</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1388,8 +1388,8 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="B7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1466,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>57</v>
@@ -1537,7 +1537,7 @@
         <v>61</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>51</v>
@@ -1622,13 +1622,13 @@
         <v>103</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
@@ -1636,7 +1636,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>95</v>
@@ -1645,7 +1645,7 @@
         <v>51</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
@@ -1653,16 +1653,16 @@
         <v>12</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
@@ -1835,21 +1835,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47546167-CC85-4A9E-8A61-6235D86E74DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08DF71E-4AF6-47A6-A581-1547715BA51B}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="10" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="10" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1883,7 +1883,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1895,7 +1895,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1935,7 +1935,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table charpics (</v>
+        <v>create table characters (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1973,10 +1973,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>27</v>
@@ -1990,10 +1990,12 @@
         <v>28</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>char_id varchar (20),</v>
+        <v>user_id varchar (20),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -2001,10 +2003,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>27</v>
@@ -2021,7 +2023,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>char_pic varchar (20),</v>
+        <v>char_id varchar (20),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -2358,18 +2360,18 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{889A1A69-7B95-44F8-A6DB-6827330703FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D647C06-64F6-454C-92C3-3011A5249394}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -2403,7 +2405,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -2415,7 +2417,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2455,7 +2457,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table buytters (</v>
+        <v>create table goals (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -2493,23 +2495,608 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="3">
-        <v>20</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>g_goal int ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>g_limit date ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="3">
+        <v>140</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>g_want varchar (140),</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="3">
+        <v>140</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>g_wantpic varchar (140),</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v>created_at timestamp ,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v>update_at timestamp ,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="3">
+        <v>20</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v>c_name varchar (20),</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="3">
+        <v>20</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v>user_id varchar (20),</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">g_available int </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{889A1A69-7B95-44F8-A6DB-6827330703FC}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45086</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table buytters (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>id int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
         <v>60</v>
       </c>
@@ -2526,7 +3113,7 @@
         <v>45</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>27</v>
@@ -2552,7 +3139,7 @@
         <v>46</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>27</v>
@@ -2894,539 +3481,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08DF71E-4AF6-47A6-A581-1547715BA51B}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45086</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table characters (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>id int ,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="3">
-        <v>20</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user_id varchar (20),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="3">
-        <v>20</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>char_id varchar (20),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>created_at timestamp ,</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">update_at timestamp </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0606B6-CB70-485A-9023-F73FD289765F}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="10" width="7.54296875" customWidth="1"/>
+    <col min="1" max="1" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.90625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="18.54296875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3559,7 +3633,7 @@
         <v>39</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>27</v>
@@ -3587,7 +3661,7 @@
         <v>40</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>32</v>
@@ -3954,7 +4028,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3974,7 +4048,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -4008,7 +4082,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -4496,528 +4570,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0587E30D-7759-4A3B-9CC0-36F668ED641D}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45086</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table banks (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>id int ,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="3">
-        <v>20</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>user_id varchar (20),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>b_bank int ,</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>created_at timestamp ,</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">update_at timestamp </v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C7BBFC-5DD6-4818-B942-AAF0C0A37A29}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5033,6 +4585,528 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0587E30D-7759-4A3B-9CC0-36F668ED641D}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45086</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table banks (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>id int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>user_id varchar (20),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>b_bank int ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>created_at timestamp ,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">update_at timestamp </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79624A17-55DE-4E78-8F5B-7D6F199EA190}">
   <dimension ref="A1:L30"/>
@@ -5045,7 +5119,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -5079,7 +5153,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -5560,7 +5634,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -5601,7 +5675,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -5613,7 +5687,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -5653,7 +5727,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table itemspics (</v>
+        <v>create table itempics (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -5739,7 +5813,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L12" t="str">
         <f t="shared" si="0"/>
@@ -5754,7 +5828,7 @@
         <v>96</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>32</v>
@@ -6093,7 +6167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45687263-D77C-4890-ADCD-E330F078AF7E}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -6617,7 +6691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F08E1DA-ADAA-4472-B164-D3113B089D91}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
@@ -7140,10 +7214,13 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="10" width="15.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
@@ -7277,7 +7354,7 @@
         <v>77</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -7291,7 +7368,7 @@
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>buyte_id varchar ,</v>
+        <v>buyte_id int ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -7654,18 +7731,21 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D647C06-64F6-454C-92C3-3011A5249394}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47546167-CC85-4A9E-8A61-6235D86E74DD}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="13.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -7699,7 +7779,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -7711,7 +7791,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -7751,7 +7831,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table goals (</v>
+        <v>create table charpics (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -7789,15 +7869,17 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
@@ -7807,7 +7889,7 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>g_goal int ,</v>
+        <v>char_id varchar (20),</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -7815,15 +7897,17 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="E12" s="3">
+        <v>20</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
@@ -7833,7 +7917,7 @@
       <c r="J12" s="3"/>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>g_limit date ,</v>
+        <v>char_pic varchar (20),</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -7841,25 +7925,25 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="3">
-        <v>140</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>g_want varchar (140),</v>
+        <v>created_at timestamp ,</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -7867,163 +7951,115 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="3">
-        <v>140</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>g_wantpic varchar (140),</v>
+        <v xml:space="preserve">update_at timestamp </v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>created_at timestamp ,</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="J16" s="3"/>
       <c r="L16" t="str">
         <f t="shared" si="0"/>
-        <v>update_at timestamp ,</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="3">
-        <v>20</v>
-      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
         <f t="shared" si="0"/>
-        <v>c_name varchar (20),</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="3">
-        <v>20</v>
-      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="J18" s="3"/>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
-        <v>user_id varchar (20),</v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="L19" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">g_available int </v>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -8075,7 +8111,6 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
       <c r="L22" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
@@ -8094,7 +8129,6 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
       <c r="L23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
@@ -8113,7 +8147,6 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
       <c r="L24" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
@@ -8132,7 +8165,6 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
       <c r="L25" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
@@ -8151,7 +8183,6 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
       <c r="L26" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
@@ -8170,7 +8201,6 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
       <c r="L27" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
@@ -8189,7 +8219,6 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
       <c r="L28" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
@@ -8208,7 +8237,6 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
       <c r="L29" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">  </v>
@@ -8222,6 +8250,5 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/04_DB定義書_新イフリート改_0609.xlsx
+++ b/doc/04_DB定義書_新イフリート改_0609.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03227F7-A453-4998-A86C-D2F237AB1357}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9FDA66-93CF-44BF-9DA6-BCB732EF789E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33630" yWindow="45" windowWidth="21525" windowHeight="12585" tabRatio="875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="137">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -868,6 +868,73 @@
   </si>
   <si>
     <t>itempics</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>健康状態</t>
+    <rPh sb="0" eb="4">
+      <t>ケンコウジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c_health</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>健康状態は0なら元気。１ならステージ１。２ならステージ２。３ならステージ４。</t>
+    <rPh sb="0" eb="2">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ゲンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラの健康状態に応じて、画像が切り替わる。</t>
+    <rPh sb="4" eb="8">
+      <t>ケンコウジョウタイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>購入判定</t>
+    <rPh sb="0" eb="2">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item_buy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>買ってなかったら０。買ってたら１。</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1012,22 +1079,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>239279</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>47601</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>121227</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>110661</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="図 14">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF72FB65-78AC-47C0-9ECC-52F6AB724005}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47A3BA51-6C36-464A-B9E8-39F60138C393}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1049,8 +1116,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="239279" y="203465"/>
-          <a:ext cx="22153130" cy="10516489"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="19414661" cy="8620125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2363,7 +2430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D647C06-64F6-454C-92C3-3011A5249394}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="B4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -2937,7 +3004,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4573,7 +4640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C7BBFC-5DD6-4818-B942-AAF0C0A37A29}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="AT32" sqref="AT32"/>
     </sheetView>
   </sheetViews>
@@ -4589,7 +4656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0587E30D-7759-4A3B-9CC0-36F668ED641D}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -5634,7 +5701,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -5897,25 +5964,35 @@
       </c>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">update_at timestamp </v>
+        <v>update_at timestamp ,</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="L16" t="str">
         <f t="shared" ref="L16:L29" si="1">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">item_buy int </v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -6691,7 +6768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F08E1DA-ADAA-4472-B164-D3113B089D91}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
@@ -7734,13 +7811,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47546167-CC85-4A9E-8A61-6235D86E74DD}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="10" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="70.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
@@ -7886,7 +7963,9 @@
         <v>28</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>133</v>
+      </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>char_id varchar (20),</v>
@@ -7969,25 +8048,35 @@
       </c>
       <c r="L14" t="str">
         <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">update_at timestamp </v>
+        <v>update_at timestamp ,</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">  </v>
+        <v xml:space="preserve">c_health int </v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -8250,5 +8339,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/04_DB定義書_新イフリート改_0609.xlsx
+++ b/doc/04_DB定義書_新イフリート改_0609.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9FDA66-93CF-44BF-9DA6-BCB732EF789E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70823C9E-D8E4-4E24-AF22-3AC4FC990B9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
     <sheet name="ER図もどき" sheetId="15" r:id="rId2"/>
-    <sheet name="貯金テーブル" sheetId="18" r:id="rId3"/>
-    <sheet name="装飾品ステータステーブル" sheetId="17" r:id="rId4"/>
-    <sheet name="装飾品イメージテーブル" sheetId="16" r:id="rId5"/>
-    <sheet name="検索履歴テーブル" sheetId="14" r:id="rId6"/>
-    <sheet name="ポイントテーブル" sheetId="13" r:id="rId7"/>
-    <sheet name="ナイスバイカウントテーブル" sheetId="12" r:id="rId8"/>
-    <sheet name="キャラクターイメージテーブル" sheetId="11" r:id="rId9"/>
-    <sheet name="キャラクターステータステーブル" sheetId="10" r:id="rId10"/>
-    <sheet name="目標テーブル" sheetId="4" r:id="rId11"/>
-    <sheet name="投稿テーブル" sheetId="5" r:id="rId12"/>
-    <sheet name="収支テーブル" sheetId="3" r:id="rId13"/>
-    <sheet name="ユーザテーブル" sheetId="8" r:id="rId14"/>
+    <sheet name="健康テーブル" sheetId="19" r:id="rId3"/>
+    <sheet name="貯金テーブル" sheetId="18" r:id="rId4"/>
+    <sheet name="装飾品ステータステーブル" sheetId="17" r:id="rId5"/>
+    <sheet name="装飾品イメージテーブル" sheetId="16" r:id="rId6"/>
+    <sheet name="検索履歴テーブル" sheetId="14" r:id="rId7"/>
+    <sheet name="ポイントテーブル" sheetId="13" r:id="rId8"/>
+    <sheet name="ナイスバイカウントテーブル" sheetId="12" r:id="rId9"/>
+    <sheet name="キャラクターイメージテーブル" sheetId="11" r:id="rId10"/>
+    <sheet name="キャラクターステータステーブル" sheetId="10" r:id="rId11"/>
+    <sheet name="目標テーブル" sheetId="4" r:id="rId12"/>
+    <sheet name="投稿テーブル" sheetId="5" r:id="rId13"/>
+    <sheet name="収支テーブル" sheetId="3" r:id="rId14"/>
+    <sheet name="ユーザテーブル" sheetId="8" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="144">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -934,6 +935,61 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>健康テーブル</t>
+    <rPh sb="0" eb="2">
+      <t>ケンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>healths</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>健康状態の変化を記録</t>
+    <rPh sb="0" eb="4">
+      <t>ケンコウジョウタイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>健康テーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>健康状態変化</t>
+    <rPh sb="0" eb="4">
+      <t>ケンコウジョウタイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>health_pm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>健康状態の変動を＋ーを格納</t>
+    <rPh sb="0" eb="4">
+      <t>ケンコウジョウタイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンドウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カクノウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1456,7 +1512,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView topLeftCell="B7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1736,10 +1792,18 @@
       <c r="B20" s="3">
         <v>13</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="3">
@@ -1902,6 +1966,542 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47546167-CC85-4A9E-8A61-6235D86E74DD}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="70.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45086</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table charpics (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>id int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>char_id varchar (20),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="3">
+        <v>20</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>char_pic varchar (20),</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>created_at timestamp ,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v>update_at timestamp ,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">c_health int </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08DF71E-4AF6-47A6-A581-1547715BA51B}">
   <dimension ref="A1:L30"/>
   <sheetViews>
@@ -2426,12 +3026,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D647C06-64F6-454C-92C3-3011A5249394}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView topLeftCell="B4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2999,7 +3599,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{889A1A69-7B95-44F8-A6DB-6827330703FC}">
   <dimension ref="A1:L30"/>
   <sheetViews>
@@ -3548,12 +4148,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0606B6-CB70-485A-9023-F73FD289765F}">
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4090,7 +4690,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3626F4E-A92C-4C12-92B0-1F20278ED3BE}">
   <dimension ref="A1:L30"/>
   <sheetViews>
@@ -4640,7 +5240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C7BBFC-5DD6-4818-B942-AAF0C0A37A29}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="AT32" sqref="AT32"/>
     </sheetView>
   </sheetViews>
@@ -4653,18 +5253,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0587E30D-7759-4A3B-9CC0-36F668ED641D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E5B6C2-E903-4BFE-BEA2-23123FC5A45D}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.08984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -4690,7 +5303,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="5">
-        <v>45086</v>
+        <v>45096</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -4698,7 +5311,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -4710,7 +5323,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4750,7 +5363,7 @@
       </c>
       <c r="L9" t="str">
         <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table banks (</v>
+        <v>create table healths (</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -4818,10 +5431,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>32</v>
@@ -4834,11 +5447,11 @@
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="L12" t="str">
         <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>b_bank int ,</v>
+        <v>health_pm int ,</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -5175,6 +5788,528 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0587E30D-7759-4A3B-9CC0-36F668ED641D}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:O34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45086</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table banks (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>id int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>user_id varchar (20),</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>b_bank int ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>created_at timestamp ,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">update_at timestamp </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79624A17-55DE-4E78-8F5B-7D6F199EA190}">
   <dimension ref="A1:L30"/>
   <sheetViews>
@@ -5696,7 +6831,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFE5C9E-19FB-4F93-90F1-43D1D56D6D32}">
   <dimension ref="A1:L30"/>
   <sheetViews>
@@ -6240,7 +7375,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45687263-D77C-4890-ADCD-E330F078AF7E}">
   <dimension ref="A1:L30"/>
   <sheetViews>
@@ -6764,7 +7899,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F08E1DA-ADAA-4472-B164-D3113B089D91}">
   <dimension ref="A1:L30"/>
   <sheetViews>
@@ -7286,7 +8421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55914BE-0386-40E6-B566-8B4B24E6224A}">
   <dimension ref="A1:L30"/>
   <sheetViews>
@@ -7805,540 +8940,4 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47546167-CC85-4A9E-8A61-6235D86E74DD}">
-  <dimension ref="A1:L30"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="10" max="10" width="70.26953125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5">
-        <v>45086</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" t="str">
-        <f>"create table "&amp;C5&amp;" ("</f>
-        <v>create table charpics (</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="L10" t="str">
-        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
-        <v>id int ,</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="3">
-        <v>20</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="L11" t="str">
-        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>char_id varchar (20),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="3">
-        <v>20</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="L12" t="str">
-        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>char_pic varchar (20),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L13" t="str">
-        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
-        <v>created_at timestamp ,</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
-        <v>update_at timestamp ,</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="L15" t="str">
-        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v xml:space="preserve">c_health int </v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="L16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="L18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="L19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="L20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="L21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="L22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="L23" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="L24" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="L25" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="L26" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>18</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="L27" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>19</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="L28" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>20</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="L29" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/doc/04_DB定義書_新イフリート改_0609.xlsx
+++ b/doc/04_DB定義書_新イフリート改_0609.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70823C9E-D8E4-4E24-AF22-3AC4FC990B9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72486ACC-26CB-4A62-B888-989114ECBAE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="875" firstSheet="3" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="144">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -3030,7 +3030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D647C06-64F6-454C-92C3-3011A5249394}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -3604,7 +3604,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3764,9 +3764,7 @@
         <v>28</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>user_id varchar (20),</v>
@@ -4152,8 +4150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0606B6-CB70-485A-9023-F73FD289765F}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4420,9 +4418,7 @@
         <v>28</v>
       </c>
       <c r="I15" s="3"/>
-      <c r="J15" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" si="0"/>
         <v>user_id varchar (20)</v>
@@ -5256,8 +5252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E5B6C2-E903-4BFE-BEA2-23123FC5A45D}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -5418,9 +5414,7 @@
         <v>28</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>user_id varchar (20),</v>
@@ -5792,7 +5786,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:O34"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -5940,9 +5934,7 @@
         <v>28</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>user_id varchar (20),</v>
@@ -7380,7 +7372,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -7528,9 +7520,7 @@
         <v>28</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>user_id varchar (20),</v>
@@ -7903,8 +7893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F08E1DA-ADAA-4472-B164-D3113B089D91}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -8052,9 +8042,7 @@
         <v>28</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
         <v>user_id varchar (20),</v>
